--- a/Personal/xiemin/Work/工作记录表.xlsx
+++ b/Personal/xiemin/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>销售发展学习内容总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC9S12单片机时钟初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -831,7 +835,12 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>42443.982893518521</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -874,8 +883,9 @@
     <hyperlink ref="B18" r:id="rId18"/>
     <hyperlink ref="B19" r:id="rId19"/>
     <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B21" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Personal/xiemin/Work/工作记录表.xlsx
+++ b/Personal/xiemin/Work/工作记录表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>MC9S12单片机时钟初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re: xy 2016-03-18 00:02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +214,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -238,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -272,6 +285,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -279,74 +295,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -366,7 +314,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -648,7 +596,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -656,7 +604,7 @@
     <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -802,7 +750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>42423.837326388886</v>
       </c>
@@ -810,7 +758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>42426.78833333333</v>
       </c>
@@ -818,15 +766,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>42429.783159722225</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>42430.866666666669</v>
       </c>
@@ -834,7 +785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>42443.982893518521</v>
       </c>
@@ -842,22 +793,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
     </row>
   </sheetData>
